--- a/问题一览.xlsx
+++ b/问题一览.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="list" sheetId="1" r:id="rId1"/>
+    <sheet name="H5-list" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
   <si>
     <t>问题No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,6 +90,138 @@
   </si>
   <si>
     <t>用户图像保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间状态的更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端开发，需要从【正在玩玩家队列】中取得房间用户信息，来判断是否有人在玩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端开发，在房间一览接口返回中加入用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID传输给前端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>娃娃详情接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信支付首页接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/2/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联调时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成loginToken接口参数名修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/2/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作废</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取用户获奖记录状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H5页面安全访问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端开发，从个人中心的中奖娃娃一览中--&gt;娃娃详情，已转到问题No.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码中有对象空指针的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端开发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -97,7 +229,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,13 +244,25 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -133,14 +277,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -173,14 +324,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:E5" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:E5"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="问题No." dataDxfId="5"/>
-    <tableColumn id="2" name="问题描述" dataDxfId="4"/>
-    <tableColumn id="3" name="是否解决" dataDxfId="3"/>
-    <tableColumn id="4" name="解决时间" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:G13" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A1:G13"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="问题No." dataDxfId="6"/>
+    <tableColumn id="2" name="问题描述" dataDxfId="5"/>
+    <tableColumn id="3" name="是否解决" dataDxfId="4"/>
+    <tableColumn id="4" name="解决时间" dataDxfId="3"/>
+    <tableColumn id="6" name="联调时间" dataDxfId="2"/>
     <tableColumn id="5" name="备注" dataDxfId="1"/>
+    <tableColumn id="7" name="其他" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -449,20 +602,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="79.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -476,10 +632,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -492,11 +654,11 @@
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -509,11 +671,11 @@
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -526,11 +688,11 @@
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -543,15 +705,164 @@
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>